--- a/LHRating/lectureHallRating.xlsx
+++ b/LHRating/lectureHallRating.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\LHRating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6FD5A0-A621-4365-BEDF-C84F40645EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9C9597-8C8D-44FA-982F-E1BC5CDCE3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D978910E-D27D-4B95-85B6-662EEE754DFA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>Lecture Hall</t>
   </si>
@@ -316,7 +316,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -385,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7085FB3F-1ABB-4C90-B532-4FA7DD0A0FF7}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1499,10 +1499,12 @@
         <f t="shared" ref="L20" si="9">COUNTIF(B15:B61,K20 )</f>
         <v>2</v>
       </c>
-      <c r="M20" s="10"/>
+      <c r="M20" s="10">
+        <v>1</v>
+      </c>
       <c r="N20" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1809,10 +1811,12 @@
         <f t="shared" ref="L28" si="17">COUNTIF(B28:B74, K28)</f>
         <v>1</v>
       </c>
-      <c r="M28" s="10"/>
+      <c r="M28" s="10">
+        <v>1</v>
+      </c>
       <c r="N28" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -1910,6 +1914,18 @@
       <c r="I31">
         <v>27</v>
       </c>
+      <c r="K31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="10">
+        <f>SUM(L2:L30)</f>
+        <v>47</v>
+      </c>
+      <c r="M31" s="10">
+        <f>SUM(M2:M30)</f>
+        <v>6</v>
+      </c>
+      <c r="N31" s="10"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -2014,13 +2030,22 @@
       <c r="C36" s="3">
         <v>92</v>
       </c>
+      <c r="D36">
+        <v>4.5</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>4.5</v>
+      </c>
       <c r="G36" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.48148148148148145</v>
       </c>
       <c r="I36">
         <v>27</v>
@@ -2340,23 +2365,23 @@
       </c>
       <c r="D49" s="6">
         <f>SUM(D2:D48)</f>
-        <v>33.5</v>
+        <v>38</v>
       </c>
       <c r="E49" s="6">
         <f>SUM(E2:E48)</f>
-        <v>35.5</v>
+        <v>39.5</v>
       </c>
       <c r="F49" s="6">
         <f>SUM(F2:F48)</f>
-        <v>21</v>
+        <v>25.5</v>
       </c>
       <c r="G49" s="6">
         <f>SUM(G2:G48)</f>
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="H49" s="9">
         <f t="shared" si="3"/>
-        <v>7.0921985815602842E-2</v>
+        <v>8.1166272655634364E-2</v>
       </c>
       <c r="I49" s="6">
         <f>SUM(I2:I48)</f>

--- a/LHRating/lectureHallRating.xlsx
+++ b/LHRating/lectureHallRating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\LHRating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9C9597-8C8D-44FA-982F-E1BC5CDCE3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA0EB2C-4C62-4152-A51C-5F36DA1E817D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D978910E-D27D-4B95-85B6-662EEE754DFA}"/>
   </bookViews>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7085FB3F-1ABB-4C90-B532-4FA7DD0A0FF7}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,16 +776,22 @@
       <c r="C2" s="3">
         <v>431</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
       <c r="G2" s="7">
         <f>SUM(D2:F2)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H2" s="8">
         <f>G2/I2</f>
-        <v>0</v>
+        <v>0.59259259259259256</v>
       </c>
       <c r="I2">
         <v>27</v>
@@ -797,10 +803,12 @@
         <f>COUNTIF(B2:B48, K2)</f>
         <v>4</v>
       </c>
-      <c r="M2" s="10"/>
+      <c r="M2" s="10">
+        <v>1</v>
+      </c>
       <c r="N2" s="11">
         <f>M2/L2</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1923,7 +1931,7 @@
       </c>
       <c r="M31" s="10">
         <f>SUM(M2:M30)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N31" s="10"/>
     </row>
@@ -2365,23 +2373,23 @@
       </c>
       <c r="D49" s="6">
         <f>SUM(D2:D48)</f>
-        <v>38</v>
+        <v>44.75</v>
       </c>
       <c r="E49" s="6">
         <f>SUM(E2:E48)</f>
-        <v>39.5</v>
+        <v>45.75</v>
       </c>
       <c r="F49" s="6">
         <f>SUM(F2:F48)</f>
-        <v>25.5</v>
+        <v>28.5</v>
       </c>
       <c r="G49" s="6">
         <f>SUM(G2:G48)</f>
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="H49" s="9">
         <f t="shared" si="3"/>
-        <v>8.1166272655634364E-2</v>
+        <v>9.3774625689519303E-2</v>
       </c>
       <c r="I49" s="6">
         <f>SUM(I2:I48)</f>

--- a/LHRating/lectureHallRating.xlsx
+++ b/LHRating/lectureHallRating.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\LHRating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA0EB2C-4C62-4152-A51C-5F36DA1E817D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C90CFD-31F6-41D9-9F74-D0BA5AC1F483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D978910E-D27D-4B95-85B6-662EEE754DFA}"/>
   </bookViews>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7085FB3F-1ABB-4C90-B532-4FA7DD0A0FF7}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,16 +822,22 @@
       <c r="C3" s="3">
         <v>400</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.5</v>
+      </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G48" si="1">SUM(D3:F3)</f>
-        <v>0</v>
+        <v>20.25</v>
       </c>
       <c r="H3" s="8">
         <f>G3/I3</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I3">
         <v>27</v>
@@ -843,10 +849,12 @@
         <f>COUNTIF(B2:B48, K3)</f>
         <v>1</v>
       </c>
-      <c r="M3" s="10"/>
+      <c r="M3" s="10">
+        <v>1</v>
+      </c>
       <c r="N3" s="11">
         <f t="shared" ref="N3:N30" si="2">M3/L3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -898,16 +906,22 @@
       <c r="C5" s="3">
         <v>382</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
       <c r="G5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.48148148148148145</v>
       </c>
       <c r="I5">
         <v>27</v>
@@ -919,10 +933,12 @@
         <f>COUNTIF(B2:B48,K5)</f>
         <v>1</v>
       </c>
-      <c r="M5" s="10"/>
+      <c r="M5" s="10">
+        <v>1</v>
+      </c>
       <c r="N5" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1591,10 +1607,12 @@
         <f t="shared" ref="L22" si="11">COUNTIF(B15:B61, K22)</f>
         <v>1</v>
       </c>
-      <c r="M22" s="10"/>
+      <c r="M22" s="10">
+        <v>1</v>
+      </c>
       <c r="N22" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1705,10 +1723,12 @@
         <f t="shared" ref="L25" si="14">COUNTIF(B15:B61,K25 )</f>
         <v>1</v>
       </c>
-      <c r="M25" s="10"/>
+      <c r="M25" s="10">
+        <v>1</v>
+      </c>
       <c r="N25" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1798,16 +1818,22 @@
       <c r="C28" s="3">
         <v>111</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4</v>
+      </c>
       <c r="G28" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="I28">
         <v>27</v>
@@ -1859,10 +1885,12 @@
         <f t="shared" ref="L29" si="18">COUNTIF(B28:B74, K29)</f>
         <v>1</v>
       </c>
-      <c r="M29" s="10"/>
+      <c r="M29" s="10">
+        <v>1</v>
+      </c>
       <c r="N29" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -1911,13 +1939,22 @@
       <c r="C31" s="3">
         <v>101</v>
       </c>
+      <c r="D31">
+        <v>7.5</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
       <c r="G31" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.57407407407407407</v>
       </c>
       <c r="I31">
         <v>27</v>
@@ -1931,7 +1968,7 @@
       </c>
       <c r="M31" s="10">
         <f>SUM(M2:M30)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N31" s="10"/>
     </row>
@@ -2093,13 +2130,22 @@
       <c r="C38" s="3">
         <v>89</v>
       </c>
+      <c r="D38">
+        <v>2.5</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
       <c r="G38" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.35185185185185186</v>
       </c>
       <c r="I38">
         <v>27</v>
@@ -2373,23 +2419,23 @@
       </c>
       <c r="D49" s="6">
         <f>SUM(D2:D48)</f>
-        <v>44.75</v>
+        <v>72.5</v>
       </c>
       <c r="E49" s="6">
         <f>SUM(E2:E48)</f>
-        <v>45.75</v>
+        <v>68.75</v>
       </c>
       <c r="F49" s="6">
         <f>SUM(F2:F48)</f>
-        <v>28.5</v>
+        <v>48</v>
       </c>
       <c r="G49" s="6">
         <f>SUM(G2:G48)</f>
-        <v>119</v>
+        <v>189.25</v>
       </c>
       <c r="H49" s="9">
         <f t="shared" si="3"/>
-        <v>9.3774625689519303E-2</v>
+        <v>0.1491331757289204</v>
       </c>
       <c r="I49" s="6">
         <f>SUM(I2:I48)</f>

--- a/LHRating/lectureHallRating.xlsx
+++ b/LHRating/lectureHallRating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\LHRating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C90CFD-31F6-41D9-9F74-D0BA5AC1F483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BAC0A6-FE61-4B76-967E-6F55C45B73CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D978910E-D27D-4B95-85B6-662EEE754DFA}"/>
   </bookViews>
@@ -710,7 +710,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,11 +1332,11 @@
         <v>3</v>
       </c>
       <c r="M15" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="11">
         <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1388,16 +1388,22 @@
       <c r="C17" s="3">
         <v>180</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
       <c r="G17" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="I17">
         <v>27</v>
@@ -1968,7 +1974,7 @@
       </c>
       <c r="M31" s="10">
         <f>SUM(M2:M30)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N31" s="10"/>
     </row>
@@ -2419,23 +2425,23 @@
       </c>
       <c r="D49" s="6">
         <f>SUM(D2:D48)</f>
-        <v>72.5</v>
+        <v>77.5</v>
       </c>
       <c r="E49" s="6">
         <f>SUM(E2:E48)</f>
-        <v>68.75</v>
+        <v>73.75</v>
       </c>
       <c r="F49" s="6">
         <f>SUM(F2:F48)</f>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G49" s="6">
         <f>SUM(G2:G48)</f>
-        <v>189.25</v>
+        <v>204.25</v>
       </c>
       <c r="H49" s="9">
         <f t="shared" si="3"/>
-        <v>0.1491331757289204</v>
+        <v>0.16095350669818756</v>
       </c>
       <c r="I49" s="6">
         <f>SUM(I2:I48)</f>

--- a/LHRating/lectureHallRating.xlsx
+++ b/LHRating/lectureHallRating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\LHRating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BAC0A6-FE61-4B76-967E-6F55C45B73CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3502D293-C06F-4D79-9526-41BEEBBC7E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D978910E-D27D-4B95-85B6-662EEE754DFA}"/>
   </bookViews>
@@ -710,7 +710,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,10 +1415,12 @@
         <f t="shared" ref="L17" si="6">COUNTIF(B15:B61, K17)</f>
         <v>1</v>
       </c>
-      <c r="M17" s="10"/>
+      <c r="M17" s="10">
+        <v>1</v>
+      </c>
       <c r="N17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1470,16 +1472,22 @@
       <c r="C19" s="3">
         <v>153</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5.5</v>
+      </c>
       <c r="G19" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.25</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.71296296296296291</v>
       </c>
       <c r="I19">
         <v>27</v>
@@ -1974,7 +1982,7 @@
       </c>
       <c r="M31" s="10">
         <f>SUM(M2:M30)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N31" s="10"/>
     </row>
@@ -2425,23 +2433,23 @@
       </c>
       <c r="D49" s="6">
         <f>SUM(D2:D48)</f>
-        <v>77.5</v>
+        <v>83.5</v>
       </c>
       <c r="E49" s="6">
         <f>SUM(E2:E48)</f>
-        <v>73.75</v>
+        <v>81.5</v>
       </c>
       <c r="F49" s="6">
         <f>SUM(F2:F48)</f>
-        <v>53</v>
+        <v>58.5</v>
       </c>
       <c r="G49" s="6">
         <f>SUM(G2:G48)</f>
-        <v>204.25</v>
+        <v>223.5</v>
       </c>
       <c r="H49" s="9">
         <f t="shared" si="3"/>
-        <v>0.16095350669818756</v>
+        <v>0.17612293144208038</v>
       </c>
       <c r="I49" s="6">
         <f>SUM(I2:I48)</f>
